--- a/excel/BG-TP-S6/BG-TP-S6.xlsx
+++ b/excel/BG-TP-S6/BG-TP-S6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Downloads\backendBulletin-main\backendBulletin-main\excel\BG-TP-S6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\bulletin-espi\backend\excel\BG-TP-S6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF392EDC-88EE-4099-8F45-9AD381082999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F9EA58-36AF-466B-B58D-04591DC27047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3924" yWindow="2316" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -335,19 +335,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-        <family val="2"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -663,7 +651,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,13 +1210,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B2 A4:B5 A7:B7">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Nom"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20 G22 G24 G26 G28 G30 G32">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>AND(COUNTIF(#REF!, G20)+COUNTIF(#REF!, G20)+COUNTIF(#REF!, G20)&gt;1,NOT(ISBLANK(G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G32">
